--- a/biology/Zoologie/Cyclophiops_semicarinatus/Cyclophiops_semicarinatus.xlsx
+++ b/biology/Zoologie/Cyclophiops_semicarinatus/Cyclophiops_semicarinatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cyclophiops semicarinatus est une espèce de serpents de la famille des Colubridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cyclophiops semicarinatus est une espèce de serpents de la famille des Colubridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Japon. Elle se rencontre dans les îles Ryūkyū et Tokara[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Japon. Elle se rencontre dans les îles Ryūkyū et Tokara.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cyclophiops semicarinatus mesure entre 70 et 80 cm[2]. Son dos[3] est uniformément vert et son ventre blanc.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cyclophiops semicarinatus mesure entre 70 et 80 cm. Son dos est uniformément vert et son ventre blanc.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Hallowell, 1861 "1860" : Report upon the Reptilia of the North Pacific Exploring Expedition, under command of Capt. John Rogers, U. S. N. Proceedings of the Academy of Natural Sciences of Philadelphia, vol. 12, p. 480-510 (texte intégral).</t>
         </is>
